--- a/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
+++ b/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
@@ -73,11 +73,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3556"/>
+  <dimension ref="A1:O3556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +461,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>1_昭島店 売上データ</t>
         </is>
       </c>
-    </row>
-    <row r="2"/>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>配達完了までの時間</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -493,6 +498,46 @@
           <t>注文状態</t>
         </is>
       </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="inlineStr">
@@ -517,6 +562,30 @@
         <is>
           <t>お渡し済み</t>
         </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>3553</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>34.47706163805235</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>14.51440318863152</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="5">

--- a/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
+++ b/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,10 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -73,12 +77,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -461,7 +466,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>1_昭島店 売上データ</t>
         </is>
@@ -807,7 +812,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -857,7 +862,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1307,7 +1312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1457,7 +1462,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1482,7 +1487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1582,7 +1587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1607,7 +1612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1632,7 +1637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1757,7 +1762,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -1957,7 +1962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2057,7 +2062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="F63" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2082,7 +2087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="F64" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2407,7 +2412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F77" s="3" t="inlineStr">
+      <c r="F77" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2457,7 +2462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F79" s="3" t="inlineStr">
+      <c r="F79" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2532,7 +2537,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F82" s="3" t="inlineStr">
+      <c r="F82" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2707,7 +2712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F89" s="3" t="inlineStr">
+      <c r="F89" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2732,7 +2737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F90" s="3" t="inlineStr">
+      <c r="F90" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2782,7 +2787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F92" s="3" t="inlineStr">
+      <c r="F92" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2832,7 +2837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F94" s="3" t="inlineStr">
+      <c r="F94" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2882,7 +2887,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F96" s="3" t="inlineStr">
+      <c r="F96" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -2932,7 +2937,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F98" s="3" t="inlineStr">
+      <c r="F98" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -3007,7 +3012,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F101" s="3" t="inlineStr">
+      <c r="F101" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -3157,7 +3162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F107" s="3" t="inlineStr">
+      <c r="F107" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -3282,7 +3287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F112" s="3" t="inlineStr">
+      <c r="F112" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -3532,7 +3537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F122" s="3" t="inlineStr">
+      <c r="F122" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -3907,7 +3912,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F137" s="3" t="inlineStr">
+      <c r="F137" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4182,7 +4187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F148" s="3" t="inlineStr">
+      <c r="F148" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4282,7 +4287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F152" s="3" t="inlineStr">
+      <c r="F152" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4307,7 +4312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F153" s="3" t="inlineStr">
+      <c r="F153" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4382,7 +4387,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F156" s="3" t="inlineStr">
+      <c r="F156" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4457,7 +4462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F159" s="3" t="inlineStr">
+      <c r="F159" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4532,7 +4537,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F162" s="3" t="inlineStr">
+      <c r="F162" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4557,7 +4562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F163" s="3" t="inlineStr">
+      <c r="F163" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4607,7 +4612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F165" s="3" t="inlineStr">
+      <c r="F165" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4782,7 +4787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F172" s="3" t="inlineStr">
+      <c r="F172" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4957,7 +4962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F179" s="3" t="inlineStr">
+      <c r="F179" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -4982,7 +4987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F180" s="3" t="inlineStr">
+      <c r="F180" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5057,7 +5062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F183" s="3" t="inlineStr">
+      <c r="F183" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5282,7 +5287,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F192" s="3" t="inlineStr">
+      <c r="F192" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5407,7 +5412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F197" s="3" t="inlineStr">
+      <c r="F197" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5707,7 +5712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F209" s="3" t="inlineStr">
+      <c r="F209" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5732,7 +5737,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F210" s="3" t="inlineStr">
+      <c r="F210" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5782,7 +5787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F212" s="3" t="inlineStr">
+      <c r="F212" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5907,7 +5912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F217" s="3" t="inlineStr">
+      <c r="F217" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -5982,7 +5987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F220" s="3" t="inlineStr">
+      <c r="F220" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6182,7 +6187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F228" s="3" t="inlineStr">
+      <c r="F228" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6207,7 +6212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F229" s="3" t="inlineStr">
+      <c r="F229" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6257,7 +6262,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F231" s="3" t="inlineStr">
+      <c r="F231" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6382,7 +6387,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F236" s="3" t="inlineStr">
+      <c r="F236" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6632,7 +6637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F246" s="3" t="inlineStr">
+      <c r="F246" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6657,7 +6662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F247" s="3" t="inlineStr">
+      <c r="F247" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6682,7 +6687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F248" s="3" t="inlineStr">
+      <c r="F248" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -6757,7 +6762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F251" s="3" t="inlineStr">
+      <c r="F251" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7007,7 +7012,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F261" s="3" t="inlineStr">
+      <c r="F261" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7057,7 +7062,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F263" s="3" t="inlineStr">
+      <c r="F263" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7082,7 +7087,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F264" s="3" t="inlineStr">
+      <c r="F264" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7107,7 +7112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F265" s="3" t="inlineStr">
+      <c r="F265" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7157,7 +7162,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F267" s="3" t="inlineStr">
+      <c r="F267" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7257,7 +7262,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F271" s="3" t="inlineStr">
+      <c r="F271" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7432,7 +7437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F278" s="3" t="inlineStr">
+      <c r="F278" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7457,7 +7462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F279" s="3" t="inlineStr">
+      <c r="F279" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -7482,7 +7487,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F280" s="3" t="inlineStr">
+      <c r="F280" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -8057,7 +8062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F303" s="3" t="inlineStr">
+      <c r="F303" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -8257,7 +8262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F311" s="3" t="inlineStr">
+      <c r="F311" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -8657,7 +8662,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F327" s="3" t="inlineStr">
+      <c r="F327" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9407,7 +9412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F357" s="3" t="inlineStr">
+      <c r="F357" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9482,7 +9487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F360" s="3" t="inlineStr">
+      <c r="F360" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9557,7 +9562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F363" s="3" t="inlineStr">
+      <c r="F363" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9632,7 +9637,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F366" s="3" t="inlineStr">
+      <c r="F366" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9657,7 +9662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F367" s="3" t="inlineStr">
+      <c r="F367" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9732,7 +9737,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F370" s="3" t="inlineStr">
+      <c r="F370" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9882,7 +9887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F376" s="3" t="inlineStr">
+      <c r="F376" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -9982,7 +9987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F380" s="3" t="inlineStr">
+      <c r="F380" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -10007,7 +10012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F381" s="3" t="inlineStr">
+      <c r="F381" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -10257,7 +10262,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F391" s="3" t="inlineStr">
+      <c r="F391" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -10557,7 +10562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F403" s="3" t="inlineStr">
+      <c r="F403" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -10607,7 +10612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F405" s="3" t="inlineStr">
+      <c r="F405" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -10907,7 +10912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F417" s="3" t="inlineStr">
+      <c r="F417" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -10982,7 +10987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F420" s="3" t="inlineStr">
+      <c r="F420" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11107,7 +11112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F425" s="3" t="inlineStr">
+      <c r="F425" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11157,7 +11162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F427" s="3" t="inlineStr">
+      <c r="F427" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11232,7 +11237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F430" s="3" t="inlineStr">
+      <c r="F430" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11307,7 +11312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F433" s="3" t="inlineStr">
+      <c r="F433" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11457,7 +11462,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F439" s="3" t="inlineStr">
+      <c r="F439" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11482,7 +11487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F440" s="3" t="inlineStr">
+      <c r="F440" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11657,7 +11662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F447" s="3" t="inlineStr">
+      <c r="F447" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11707,7 +11712,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F449" s="3" t="inlineStr">
+      <c r="F449" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11782,7 +11787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F452" s="3" t="inlineStr">
+      <c r="F452" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -11982,7 +11987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F460" s="3" t="inlineStr">
+      <c r="F460" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12057,7 +12062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F463" s="3" t="inlineStr">
+      <c r="F463" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12082,7 +12087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F464" s="3" t="inlineStr">
+      <c r="F464" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12207,7 +12212,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F469" s="3" t="inlineStr">
+      <c r="F469" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12232,7 +12237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F470" s="3" t="inlineStr">
+      <c r="F470" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12407,7 +12412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F477" s="3" t="inlineStr">
+      <c r="F477" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12557,7 +12562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F483" s="3" t="inlineStr">
+      <c r="F483" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12782,7 +12787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F492" s="3" t="inlineStr">
+      <c r="F492" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -12982,7 +12987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F500" s="3" t="inlineStr">
+      <c r="F500" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13032,7 +13037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F502" s="3" t="inlineStr">
+      <c r="F502" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13232,7 +13237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F510" s="3" t="inlineStr">
+      <c r="F510" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13257,7 +13262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F511" s="3" t="inlineStr">
+      <c r="F511" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13357,7 +13362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F515" s="3" t="inlineStr">
+      <c r="F515" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13432,7 +13437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F518" s="3" t="inlineStr">
+      <c r="F518" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13582,7 +13587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F524" s="3" t="inlineStr">
+      <c r="F524" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13607,7 +13612,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F525" s="3" t="inlineStr">
+      <c r="F525" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13682,7 +13687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F528" s="3" t="inlineStr">
+      <c r="F528" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13782,7 +13787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F532" s="3" t="inlineStr">
+      <c r="F532" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13807,7 +13812,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F533" s="3" t="inlineStr">
+      <c r="F533" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -13857,7 +13862,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F535" s="3" t="inlineStr">
+      <c r="F535" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14132,7 +14137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F546" s="3" t="inlineStr">
+      <c r="F546" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14257,7 +14262,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F551" s="3" t="inlineStr">
+      <c r="F551" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14282,7 +14287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F552" s="3" t="inlineStr">
+      <c r="F552" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14632,7 +14637,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F566" s="3" t="inlineStr">
+      <c r="F566" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14682,7 +14687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F568" s="3" t="inlineStr">
+      <c r="F568" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14832,7 +14837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F574" s="3" t="inlineStr">
+      <c r="F574" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14932,7 +14937,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F578" s="3" t="inlineStr">
+      <c r="F578" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -14982,7 +14987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F580" s="3" t="inlineStr">
+      <c r="F580" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15082,7 +15087,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F584" s="3" t="inlineStr">
+      <c r="F584" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15107,7 +15112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F585" s="3" t="inlineStr">
+      <c r="F585" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15232,7 +15237,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F590" s="3" t="inlineStr">
+      <c r="F590" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15282,7 +15287,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F592" s="3" t="inlineStr">
+      <c r="F592" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15332,7 +15337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F594" s="3" t="inlineStr">
+      <c r="F594" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15382,7 +15387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F596" s="3" t="inlineStr">
+      <c r="F596" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15632,7 +15637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F606" s="3" t="inlineStr">
+      <c r="F606" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15857,7 +15862,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F615" s="3" t="inlineStr">
+      <c r="F615" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -15932,7 +15937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F618" s="3" t="inlineStr">
+      <c r="F618" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -16082,7 +16087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F624" s="3" t="inlineStr">
+      <c r="F624" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -16182,7 +16187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F628" s="3" t="inlineStr">
+      <c r="F628" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -16232,7 +16237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F630" s="3" t="inlineStr">
+      <c r="F630" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -16382,7 +16387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F636" s="3" t="inlineStr">
+      <c r="F636" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -16682,7 +16687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F648" s="3" t="inlineStr">
+      <c r="F648" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -16882,7 +16887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F656" s="3" t="inlineStr">
+      <c r="F656" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17157,7 +17162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F667" s="3" t="inlineStr">
+      <c r="F667" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17207,7 +17212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F669" s="3" t="inlineStr">
+      <c r="F669" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17357,7 +17362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F675" s="3" t="inlineStr">
+      <c r="F675" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17757,7 +17762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F691" s="3" t="inlineStr">
+      <c r="F691" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17782,7 +17787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F692" s="3" t="inlineStr">
+      <c r="F692" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17832,7 +17837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F694" s="3" t="inlineStr">
+      <c r="F694" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17857,7 +17862,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F695" s="3" t="inlineStr">
+      <c r="F695" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -17882,7 +17887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F696" s="3" t="inlineStr">
+      <c r="F696" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18107,7 +18112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F705" s="3" t="inlineStr">
+      <c r="F705" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18232,7 +18237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F710" s="3" t="inlineStr">
+      <c r="F710" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18382,7 +18387,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F716" s="3" t="inlineStr">
+      <c r="F716" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18482,7 +18487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F720" s="3" t="inlineStr">
+      <c r="F720" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18532,7 +18537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F722" s="3" t="inlineStr">
+      <c r="F722" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18557,7 +18562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F723" s="3" t="inlineStr">
+      <c r="F723" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18582,7 +18587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F724" s="3" t="inlineStr">
+      <c r="F724" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -18882,7 +18887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F736" s="3" t="inlineStr">
+      <c r="F736" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -19332,7 +19337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F754" s="3" t="inlineStr">
+      <c r="F754" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -19357,7 +19362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F755" s="3" t="inlineStr">
+      <c r="F755" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -19432,7 +19437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F758" s="3" t="inlineStr">
+      <c r="F758" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -19482,7 +19487,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F760" s="3" t="inlineStr">
+      <c r="F760" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -19532,7 +19537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F762" s="3" t="inlineStr">
+      <c r="F762" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -19857,7 +19862,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F775" s="3" t="inlineStr">
+      <c r="F775" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20157,7 +20162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F787" s="3" t="inlineStr">
+      <c r="F787" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20207,7 +20212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F789" s="3" t="inlineStr">
+      <c r="F789" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20282,7 +20287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F792" s="3" t="inlineStr">
+      <c r="F792" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20382,7 +20387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F796" s="3" t="inlineStr">
+      <c r="F796" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20407,7 +20412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F797" s="3" t="inlineStr">
+      <c r="F797" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20432,7 +20437,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F798" s="3" t="inlineStr">
+      <c r="F798" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20557,7 +20562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F803" s="3" t="inlineStr">
+      <c r="F803" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20657,7 +20662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F807" s="3" t="inlineStr">
+      <c r="F807" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20782,7 +20787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F812" s="3" t="inlineStr">
+      <c r="F812" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20907,7 +20912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F817" s="3" t="inlineStr">
+      <c r="F817" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -20932,7 +20937,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F818" s="3" t="inlineStr">
+      <c r="F818" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21057,7 +21062,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F823" s="3" t="inlineStr">
+      <c r="F823" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21332,7 +21337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F834" s="3" t="inlineStr">
+      <c r="F834" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21432,7 +21437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F838" s="3" t="inlineStr">
+      <c r="F838" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21557,7 +21562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F843" s="3" t="inlineStr">
+      <c r="F843" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21682,7 +21687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F848" s="3" t="inlineStr">
+      <c r="F848" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21707,7 +21712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F849" s="3" t="inlineStr">
+      <c r="F849" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21832,7 +21837,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F854" s="3" t="inlineStr">
+      <c r="F854" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21857,7 +21862,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F855" s="3" t="inlineStr">
+      <c r="F855" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21882,7 +21887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F856" s="3" t="inlineStr">
+      <c r="F856" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -21982,7 +21987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F860" s="3" t="inlineStr">
+      <c r="F860" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -22107,7 +22112,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F865" s="3" t="inlineStr">
+      <c r="F865" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -22132,7 +22137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F866" s="3" t="inlineStr">
+      <c r="F866" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -22157,7 +22162,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F867" s="3" t="inlineStr">
+      <c r="F867" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -22182,7 +22187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F868" s="3" t="inlineStr">
+      <c r="F868" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -22232,7 +22237,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F870" s="3" t="inlineStr">
+      <c r="F870" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -22732,7 +22737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F890" s="3" t="inlineStr">
+      <c r="F890" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -23082,7 +23087,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F904" s="3" t="inlineStr">
+      <c r="F904" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -23107,7 +23112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F905" s="3" t="inlineStr">
+      <c r="F905" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -23482,7 +23487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F920" s="3" t="inlineStr">
+      <c r="F920" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -23757,7 +23762,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F931" s="3" t="inlineStr">
+      <c r="F931" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -23882,7 +23887,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F936" s="3" t="inlineStr">
+      <c r="F936" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24007,7 +24012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F941" s="3" t="inlineStr">
+      <c r="F941" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24082,7 +24087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F944" s="3" t="inlineStr">
+      <c r="F944" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24107,7 +24112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F945" s="3" t="inlineStr">
+      <c r="F945" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24232,7 +24237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F950" s="3" t="inlineStr">
+      <c r="F950" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24282,7 +24287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F952" s="3" t="inlineStr">
+      <c r="F952" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24357,7 +24362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F955" s="3" t="inlineStr">
+      <c r="F955" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24407,7 +24412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F957" s="3" t="inlineStr">
+      <c r="F957" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24482,7 +24487,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F960" s="3" t="inlineStr">
+      <c r="F960" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24557,7 +24562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F963" s="3" t="inlineStr">
+      <c r="F963" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24582,7 +24587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F964" s="3" t="inlineStr">
+      <c r="F964" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24807,7 +24812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F973" s="3" t="inlineStr">
+      <c r="F973" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24932,7 +24937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F978" s="3" t="inlineStr">
+      <c r="F978" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -24957,7 +24962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F979" s="3" t="inlineStr">
+      <c r="F979" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -25057,7 +25062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F983" s="3" t="inlineStr">
+      <c r="F983" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -25232,7 +25237,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F990" s="3" t="inlineStr">
+      <c r="F990" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -25282,7 +25287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F992" s="3" t="inlineStr">
+      <c r="F992" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -25432,7 +25437,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F998" s="3" t="inlineStr">
+      <c r="F998" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -25482,7 +25487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1000" s="3" t="inlineStr">
+      <c r="F1000" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -25807,7 +25812,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1013" s="3" t="inlineStr">
+      <c r="F1013" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -25832,7 +25837,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1014" s="3" t="inlineStr">
+      <c r="F1014" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26007,7 +26012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1021" s="3" t="inlineStr">
+      <c r="F1021" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26057,7 +26062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1023" s="3" t="inlineStr">
+      <c r="F1023" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26332,7 +26337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1034" s="3" t="inlineStr">
+      <c r="F1034" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26457,7 +26462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1039" s="3" t="inlineStr">
+      <c r="F1039" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26682,7 +26687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1048" s="3" t="inlineStr">
+      <c r="F1048" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26882,7 +26887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1056" s="3" t="inlineStr">
+      <c r="F1056" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26957,7 +26962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1059" s="3" t="inlineStr">
+      <c r="F1059" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -26982,7 +26987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1060" s="3" t="inlineStr">
+      <c r="F1060" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27082,7 +27087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1064" s="3" t="inlineStr">
+      <c r="F1064" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27107,7 +27112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1065" s="3" t="inlineStr">
+      <c r="F1065" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27357,7 +27362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1075" s="3" t="inlineStr">
+      <c r="F1075" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27382,7 +27387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1076" s="3" t="inlineStr">
+      <c r="F1076" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27532,7 +27537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1082" s="3" t="inlineStr">
+      <c r="F1082" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27782,7 +27787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1092" s="3" t="inlineStr">
+      <c r="F1092" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27932,7 +27937,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1098" s="3" t="inlineStr">
+      <c r="F1098" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -27957,7 +27962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1099" s="3" t="inlineStr">
+      <c r="F1099" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -28282,7 +28287,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1112" s="3" t="inlineStr">
+      <c r="F1112" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -28307,7 +28312,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1113" s="3" t="inlineStr">
+      <c r="F1113" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -28457,7 +28462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1119" s="3" t="inlineStr">
+      <c r="F1119" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -28532,7 +28537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1122" s="3" t="inlineStr">
+      <c r="F1122" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -28582,7 +28587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1124" s="3" t="inlineStr">
+      <c r="F1124" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -28757,7 +28762,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1131" s="3" t="inlineStr">
+      <c r="F1131" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29057,7 +29062,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1143" s="3" t="inlineStr">
+      <c r="F1143" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29132,7 +29137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1146" s="3" t="inlineStr">
+      <c r="F1146" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29207,7 +29212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1149" s="3" t="inlineStr">
+      <c r="F1149" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29282,7 +29287,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1152" s="3" t="inlineStr">
+      <c r="F1152" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29407,7 +29412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1157" s="3" t="inlineStr">
+      <c r="F1157" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29707,7 +29712,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1169" s="3" t="inlineStr">
+      <c r="F1169" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29832,7 +29837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1174" s="3" t="inlineStr">
+      <c r="F1174" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -29857,7 +29862,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1175" s="3" t="inlineStr">
+      <c r="F1175" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30007,7 +30012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1181" s="3" t="inlineStr">
+      <c r="F1181" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30032,7 +30037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1182" s="3" t="inlineStr">
+      <c r="F1182" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30082,7 +30087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1184" s="3" t="inlineStr">
+      <c r="F1184" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30107,7 +30112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1185" s="3" t="inlineStr">
+      <c r="F1185" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30157,7 +30162,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1187" s="3" t="inlineStr">
+      <c r="F1187" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30182,7 +30187,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1188" s="3" t="inlineStr">
+      <c r="F1188" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30307,7 +30312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1193" s="3" t="inlineStr">
+      <c r="F1193" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30507,7 +30512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1201" s="3" t="inlineStr">
+      <c r="F1201" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30757,7 +30762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1211" s="3" t="inlineStr">
+      <c r="F1211" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -30782,7 +30787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1212" s="3" t="inlineStr">
+      <c r="F1212" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31007,7 +31012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1221" s="3" t="inlineStr">
+      <c r="F1221" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31057,7 +31062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1223" s="3" t="inlineStr">
+      <c r="F1223" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31182,7 +31187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1228" s="3" t="inlineStr">
+      <c r="F1228" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31207,7 +31212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1229" s="3" t="inlineStr">
+      <c r="F1229" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31307,7 +31312,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1233" s="3" t="inlineStr">
+      <c r="F1233" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31382,7 +31387,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1236" s="3" t="inlineStr">
+      <c r="F1236" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31432,7 +31437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1238" s="3" t="inlineStr">
+      <c r="F1238" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31607,7 +31612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1245" s="3" t="inlineStr">
+      <c r="F1245" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31682,7 +31687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1248" s="3" t="inlineStr">
+      <c r="F1248" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31807,7 +31812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1253" s="3" t="inlineStr">
+      <c r="F1253" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -31907,7 +31912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1257" s="3" t="inlineStr">
+      <c r="F1257" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -32057,7 +32062,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1263" s="3" t="inlineStr">
+      <c r="F1263" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -32282,7 +32287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1272" s="3" t="inlineStr">
+      <c r="F1272" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -32332,7 +32337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1274" s="3" t="inlineStr">
+      <c r="F1274" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -32857,7 +32862,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1295" s="3" t="inlineStr">
+      <c r="F1295" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -33082,7 +33087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1304" s="3" t="inlineStr">
+      <c r="F1304" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -33132,7 +33137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1306" s="3" t="inlineStr">
+      <c r="F1306" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -33157,7 +33162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1307" s="3" t="inlineStr">
+      <c r="F1307" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -33382,7 +33387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1316" s="3" t="inlineStr">
+      <c r="F1316" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -33507,7 +33512,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1321" s="3" t="inlineStr">
+      <c r="F1321" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -33782,7 +33787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1332" s="3" t="inlineStr">
+      <c r="F1332" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34107,7 +34112,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1345" s="3" t="inlineStr">
+      <c r="F1345" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34182,7 +34187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1348" s="3" t="inlineStr">
+      <c r="F1348" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34207,7 +34212,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1349" s="3" t="inlineStr">
+      <c r="F1349" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34232,7 +34237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1350" s="3" t="inlineStr">
+      <c r="F1350" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34257,7 +34262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1351" s="3" t="inlineStr">
+      <c r="F1351" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34307,7 +34312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1353" s="3" t="inlineStr">
+      <c r="F1353" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34357,7 +34362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1355" s="3" t="inlineStr">
+      <c r="F1355" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34632,7 +34637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1366" s="3" t="inlineStr">
+      <c r="F1366" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34732,7 +34737,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1370" s="3" t="inlineStr">
+      <c r="F1370" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34907,7 +34912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1377" s="3" t="inlineStr">
+      <c r="F1377" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34932,7 +34937,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1378" s="3" t="inlineStr">
+      <c r="F1378" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34957,7 +34962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1379" s="3" t="inlineStr">
+      <c r="F1379" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -34982,7 +34987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1380" s="3" t="inlineStr">
+      <c r="F1380" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -35282,7 +35287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1392" s="3" t="inlineStr">
+      <c r="F1392" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -35607,7 +35612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1405" s="3" t="inlineStr">
+      <c r="F1405" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -35682,7 +35687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1408" s="3" t="inlineStr">
+      <c r="F1408" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -35707,7 +35712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1409" s="3" t="inlineStr">
+      <c r="F1409" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -35732,7 +35737,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1410" s="3" t="inlineStr">
+      <c r="F1410" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -36007,7 +36012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1421" s="3" t="inlineStr">
+      <c r="F1421" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -36232,7 +36237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1430" s="3" t="inlineStr">
+      <c r="F1430" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -36457,7 +36462,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1439" s="3" t="inlineStr">
+      <c r="F1439" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -36557,7 +36562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1443" s="3" t="inlineStr">
+      <c r="F1443" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -36732,7 +36737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1450" s="3" t="inlineStr">
+      <c r="F1450" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -36882,7 +36887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1456" s="3" t="inlineStr">
+      <c r="F1456" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -37182,7 +37187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1468" s="3" t="inlineStr">
+      <c r="F1468" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -37532,7 +37537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1482" s="3" t="inlineStr">
+      <c r="F1482" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -37707,7 +37712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1489" s="3" t="inlineStr">
+      <c r="F1489" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -37882,7 +37887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1496" s="3" t="inlineStr">
+      <c r="F1496" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -37957,7 +37962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1499" s="3" t="inlineStr">
+      <c r="F1499" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38107,7 +38112,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1505" s="3" t="inlineStr">
+      <c r="F1505" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38207,7 +38212,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1509" s="3" t="inlineStr">
+      <c r="F1509" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38357,7 +38362,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1515" s="3" t="inlineStr">
+      <c r="F1515" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38382,7 +38387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1516" s="3" t="inlineStr">
+      <c r="F1516" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38557,7 +38562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1523" s="3" t="inlineStr">
+      <c r="F1523" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38657,7 +38662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1527" s="3" t="inlineStr">
+      <c r="F1527" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38682,7 +38687,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1528" s="3" t="inlineStr">
+      <c r="F1528" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -38907,7 +38912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1537" s="3" t="inlineStr">
+      <c r="F1537" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39007,7 +39012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1541" s="3" t="inlineStr">
+      <c r="F1541" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39082,7 +39087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1544" s="3" t="inlineStr">
+      <c r="F1544" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39107,7 +39112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1545" s="3" t="inlineStr">
+      <c r="F1545" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39432,7 +39437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1558" s="3" t="inlineStr">
+      <c r="F1558" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39707,7 +39712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1569" s="3" t="inlineStr">
+      <c r="F1569" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39757,7 +39762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1571" s="3" t="inlineStr">
+      <c r="F1571" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39782,7 +39787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1572" s="3" t="inlineStr">
+      <c r="F1572" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -39857,7 +39862,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1575" s="3" t="inlineStr">
+      <c r="F1575" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -40182,7 +40187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1588" s="3" t="inlineStr">
+      <c r="F1588" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -40207,7 +40212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1589" s="3" t="inlineStr">
+      <c r="F1589" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -40432,7 +40437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1598" s="3" t="inlineStr">
+      <c r="F1598" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -40482,7 +40487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1600" s="3" t="inlineStr">
+      <c r="F1600" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -40582,7 +40587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1604" s="3" t="inlineStr">
+      <c r="F1604" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -40632,7 +40637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1606" s="3" t="inlineStr">
+      <c r="F1606" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -40857,7 +40862,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1615" s="3" t="inlineStr">
+      <c r="F1615" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -41207,7 +41212,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1629" s="3" t="inlineStr">
+      <c r="F1629" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -41332,7 +41337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1634" s="3" t="inlineStr">
+      <c r="F1634" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -41407,7 +41412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1637" s="3" t="inlineStr">
+      <c r="F1637" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -41482,7 +41487,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1640" s="3" t="inlineStr">
+      <c r="F1640" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -41532,7 +41537,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1642" s="3" t="inlineStr">
+      <c r="F1642" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -41657,7 +41662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1647" s="3" t="inlineStr">
+      <c r="F1647" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -41832,7 +41837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1654" s="3" t="inlineStr">
+      <c r="F1654" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42057,7 +42062,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1663" s="3" t="inlineStr">
+      <c r="F1663" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42082,7 +42087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1664" s="3" t="inlineStr">
+      <c r="F1664" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42157,7 +42162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1667" s="3" t="inlineStr">
+      <c r="F1667" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42232,7 +42237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1670" s="3" t="inlineStr">
+      <c r="F1670" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42332,7 +42337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1674" s="3" t="inlineStr">
+      <c r="F1674" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42407,7 +42412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1677" s="3" t="inlineStr">
+      <c r="F1677" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42557,7 +42562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1683" s="3" t="inlineStr">
+      <c r="F1683" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42682,7 +42687,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1688" s="3" t="inlineStr">
+      <c r="F1688" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42757,7 +42762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1691" s="3" t="inlineStr">
+      <c r="F1691" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42782,7 +42787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1692" s="3" t="inlineStr">
+      <c r="F1692" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42807,7 +42812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1693" s="3" t="inlineStr">
+      <c r="F1693" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -42832,7 +42837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1694" s="3" t="inlineStr">
+      <c r="F1694" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43082,7 +43087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1704" s="3" t="inlineStr">
+      <c r="F1704" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43107,7 +43112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1705" s="3" t="inlineStr">
+      <c r="F1705" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43132,7 +43137,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1706" s="3" t="inlineStr">
+      <c r="F1706" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43207,7 +43212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1709" s="3" t="inlineStr">
+      <c r="F1709" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43232,7 +43237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1710" s="3" t="inlineStr">
+      <c r="F1710" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43257,7 +43262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1711" s="3" t="inlineStr">
+      <c r="F1711" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43507,7 +43512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1721" s="3" t="inlineStr">
+      <c r="F1721" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43582,7 +43587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1724" s="3" t="inlineStr">
+      <c r="F1724" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43882,7 +43887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1736" s="3" t="inlineStr">
+      <c r="F1736" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43932,7 +43937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1738" s="3" t="inlineStr">
+      <c r="F1738" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -43957,7 +43962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1739" s="3" t="inlineStr">
+      <c r="F1739" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -44182,7 +44187,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1748" s="3" t="inlineStr">
+      <c r="F1748" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -44682,7 +44687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1768" s="3" t="inlineStr">
+      <c r="F1768" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -44982,7 +44987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1780" s="3" t="inlineStr">
+      <c r="F1780" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45082,7 +45087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1784" s="3" t="inlineStr">
+      <c r="F1784" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45157,7 +45162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1787" s="3" t="inlineStr">
+      <c r="F1787" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45207,7 +45212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1789" s="3" t="inlineStr">
+      <c r="F1789" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45232,7 +45237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1790" s="3" t="inlineStr">
+      <c r="F1790" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45282,7 +45287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1792" s="3" t="inlineStr">
+      <c r="F1792" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45332,7 +45337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1794" s="3" t="inlineStr">
+      <c r="F1794" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45432,7 +45437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1798" s="3" t="inlineStr">
+      <c r="F1798" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45607,7 +45612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1805" s="3" t="inlineStr">
+      <c r="F1805" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45632,7 +45637,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1806" s="3" t="inlineStr">
+      <c r="F1806" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45657,7 +45662,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1807" s="3" t="inlineStr">
+      <c r="F1807" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45857,7 +45862,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1815" s="3" t="inlineStr">
+      <c r="F1815" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -45907,7 +45912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1817" s="3" t="inlineStr">
+      <c r="F1817" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46007,7 +46012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1821" s="3" t="inlineStr">
+      <c r="F1821" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46107,7 +46112,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1825" s="3" t="inlineStr">
+      <c r="F1825" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46257,7 +46262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1831" s="3" t="inlineStr">
+      <c r="F1831" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46332,7 +46337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1834" s="3" t="inlineStr">
+      <c r="F1834" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46382,7 +46387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1836" s="3" t="inlineStr">
+      <c r="F1836" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46432,7 +46437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1838" s="3" t="inlineStr">
+      <c r="F1838" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46482,7 +46487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1840" s="3" t="inlineStr">
+      <c r="F1840" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46532,7 +46537,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1842" s="3" t="inlineStr">
+      <c r="F1842" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46682,7 +46687,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1848" s="3" t="inlineStr">
+      <c r="F1848" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46832,7 +46837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1854" s="3" t="inlineStr">
+      <c r="F1854" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -46882,7 +46887,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1856" s="3" t="inlineStr">
+      <c r="F1856" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47007,7 +47012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1861" s="3" t="inlineStr">
+      <c r="F1861" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47182,7 +47187,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1868" s="3" t="inlineStr">
+      <c r="F1868" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47382,7 +47387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1876" s="3" t="inlineStr">
+      <c r="F1876" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47407,7 +47412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1877" s="3" t="inlineStr">
+      <c r="F1877" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47432,7 +47437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1878" s="3" t="inlineStr">
+      <c r="F1878" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47557,7 +47562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1883" s="3" t="inlineStr">
+      <c r="F1883" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47757,7 +47762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1891" s="3" t="inlineStr">
+      <c r="F1891" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -47932,7 +47937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1898" s="3" t="inlineStr">
+      <c r="F1898" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48032,7 +48037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1902" s="3" t="inlineStr">
+      <c r="F1902" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48332,7 +48337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1914" s="3" t="inlineStr">
+      <c r="F1914" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48357,7 +48362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1915" s="3" t="inlineStr">
+      <c r="F1915" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48457,7 +48462,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1919" s="3" t="inlineStr">
+      <c r="F1919" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48607,7 +48612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1925" s="3" t="inlineStr">
+      <c r="F1925" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48732,7 +48737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1930" s="3" t="inlineStr">
+      <c r="F1930" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48757,7 +48762,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1931" s="3" t="inlineStr">
+      <c r="F1931" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48882,7 +48887,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1936" s="3" t="inlineStr">
+      <c r="F1936" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -48957,7 +48962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1939" s="3" t="inlineStr">
+      <c r="F1939" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49007,7 +49012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1941" s="3" t="inlineStr">
+      <c r="F1941" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49107,7 +49112,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1945" s="3" t="inlineStr">
+      <c r="F1945" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49132,7 +49137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1946" s="3" t="inlineStr">
+      <c r="F1946" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49282,7 +49287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1952" s="3" t="inlineStr">
+      <c r="F1952" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49407,7 +49412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F1957" s="3" t="inlineStr">
+      <c r="F1957" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49432,7 +49437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1958" s="3" t="inlineStr">
+      <c r="F1958" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49507,7 +49512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1961" s="3" t="inlineStr">
+      <c r="F1961" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -49757,7 +49762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1971" s="3" t="inlineStr">
+      <c r="F1971" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -50032,7 +50037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1982" s="3" t="inlineStr">
+      <c r="F1982" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -50057,7 +50062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1983" s="3" t="inlineStr">
+      <c r="F1983" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -50207,7 +50212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1989" s="3" t="inlineStr">
+      <c r="F1989" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -50257,7 +50262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1991" s="3" t="inlineStr">
+      <c r="F1991" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -50382,7 +50387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F1996" s="3" t="inlineStr">
+      <c r="F1996" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -50557,7 +50562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2003" s="3" t="inlineStr">
+      <c r="F2003" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -51457,7 +51462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2039" s="3" t="inlineStr">
+      <c r="F2039" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -51832,7 +51837,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2054" s="3" t="inlineStr">
+      <c r="F2054" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -51957,7 +51962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2059" s="3" t="inlineStr">
+      <c r="F2059" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -51982,7 +51987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2060" s="3" t="inlineStr">
+      <c r="F2060" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52032,7 +52037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2062" s="3" t="inlineStr">
+      <c r="F2062" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52132,7 +52137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2066" s="3" t="inlineStr">
+      <c r="F2066" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52357,7 +52362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2075" s="3" t="inlineStr">
+      <c r="F2075" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52532,7 +52537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2082" s="3" t="inlineStr">
+      <c r="F2082" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52632,7 +52637,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2086" s="3" t="inlineStr">
+      <c r="F2086" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52782,7 +52787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2092" s="3" t="inlineStr">
+      <c r="F2092" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52807,7 +52812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2093" s="3" t="inlineStr">
+      <c r="F2093" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52832,7 +52837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2094" s="3" t="inlineStr">
+      <c r="F2094" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -52882,7 +52887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2096" s="3" t="inlineStr">
+      <c r="F2096" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -53007,7 +53012,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2101" s="3" t="inlineStr">
+      <c r="F2101" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -53107,7 +53112,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2105" s="3" t="inlineStr">
+      <c r="F2105" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -53207,7 +53212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2109" s="3" t="inlineStr">
+      <c r="F2109" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -53407,7 +53412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2117" s="3" t="inlineStr">
+      <c r="F2117" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -53932,7 +53937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2138" s="3" t="inlineStr">
+      <c r="F2138" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -53982,7 +53987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2140" s="3" t="inlineStr">
+      <c r="F2140" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -54032,7 +54037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2142" s="3" t="inlineStr">
+      <c r="F2142" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -54132,7 +54137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2146" s="3" t="inlineStr">
+      <c r="F2146" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -54332,7 +54337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2154" s="3" t="inlineStr">
+      <c r="F2154" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -54357,7 +54362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2155" s="3" t="inlineStr">
+      <c r="F2155" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -54532,7 +54537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2162" s="3" t="inlineStr">
+      <c r="F2162" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -54632,7 +54637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2166" s="3" t="inlineStr">
+      <c r="F2166" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -54707,7 +54712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2169" s="3" t="inlineStr">
+      <c r="F2169" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -55507,7 +55512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2201" s="3" t="inlineStr">
+      <c r="F2201" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -55607,7 +55612,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2205" s="3" t="inlineStr">
+      <c r="F2205" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -55982,7 +55987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2220" s="3" t="inlineStr">
+      <c r="F2220" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -56182,7 +56187,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2228" s="3" t="inlineStr">
+      <c r="F2228" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -56682,7 +56687,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2248" s="3" t="inlineStr">
+      <c r="F2248" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -56757,7 +56762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2251" s="3" t="inlineStr">
+      <c r="F2251" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -56882,7 +56887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2256" s="3" t="inlineStr">
+      <c r="F2256" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57007,7 +57012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2261" s="3" t="inlineStr">
+      <c r="F2261" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57157,7 +57162,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2267" s="3" t="inlineStr">
+      <c r="F2267" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57282,7 +57287,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2272" s="3" t="inlineStr">
+      <c r="F2272" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57382,7 +57387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2276" s="3" t="inlineStr">
+      <c r="F2276" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57432,7 +57437,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2278" s="3" t="inlineStr">
+      <c r="F2278" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57457,7 +57462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2279" s="3" t="inlineStr">
+      <c r="F2279" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57732,7 +57737,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2290" s="3" t="inlineStr">
+      <c r="F2290" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57832,7 +57837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2294" s="3" t="inlineStr">
+      <c r="F2294" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -57957,7 +57962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2299" s="3" t="inlineStr">
+      <c r="F2299" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58257,7 +58262,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2311" s="3" t="inlineStr">
+      <c r="F2311" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58357,7 +58362,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2315" s="3" t="inlineStr">
+      <c r="F2315" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58557,7 +58562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2323" s="3" t="inlineStr">
+      <c r="F2323" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58657,7 +58662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2327" s="3" t="inlineStr">
+      <c r="F2327" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58707,7 +58712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2329" s="3" t="inlineStr">
+      <c r="F2329" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58782,7 +58787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2332" s="3" t="inlineStr">
+      <c r="F2332" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58882,7 +58887,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2336" s="3" t="inlineStr">
+      <c r="F2336" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -58982,7 +58987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2340" s="3" t="inlineStr">
+      <c r="F2340" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -59232,7 +59237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2350" s="3" t="inlineStr">
+      <c r="F2350" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -59282,7 +59287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2352" s="3" t="inlineStr">
+      <c r="F2352" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -59382,7 +59387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2356" s="3" t="inlineStr">
+      <c r="F2356" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -59457,7 +59462,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2359" s="3" t="inlineStr">
+      <c r="F2359" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -59507,7 +59512,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2361" s="3" t="inlineStr">
+      <c r="F2361" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -59582,7 +59587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2364" s="3" t="inlineStr">
+      <c r="F2364" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -59932,7 +59937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2378" s="3" t="inlineStr">
+      <c r="F2378" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60057,7 +60062,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2383" s="3" t="inlineStr">
+      <c r="F2383" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60207,7 +60212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2389" s="3" t="inlineStr">
+      <c r="F2389" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60482,7 +60487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2400" s="3" t="inlineStr">
+      <c r="F2400" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60507,7 +60512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2401" s="3" t="inlineStr">
+      <c r="F2401" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60582,7 +60587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2404" s="3" t="inlineStr">
+      <c r="F2404" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60757,7 +60762,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2411" s="3" t="inlineStr">
+      <c r="F2411" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60807,7 +60812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2413" s="3" t="inlineStr">
+      <c r="F2413" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -60932,7 +60937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2418" s="3" t="inlineStr">
+      <c r="F2418" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61132,7 +61137,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2426" s="3" t="inlineStr">
+      <c r="F2426" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61232,7 +61237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2430" s="3" t="inlineStr">
+      <c r="F2430" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61332,7 +61337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2434" s="3" t="inlineStr">
+      <c r="F2434" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61407,7 +61412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2437" s="3" t="inlineStr">
+      <c r="F2437" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61457,7 +61462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2439" s="3" t="inlineStr">
+      <c r="F2439" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61507,7 +61512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2441" s="3" t="inlineStr">
+      <c r="F2441" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61582,7 +61587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2444" s="3" t="inlineStr">
+      <c r="F2444" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61757,7 +61762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2451" s="3" t="inlineStr">
+      <c r="F2451" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61832,7 +61837,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2454" s="3" t="inlineStr">
+      <c r="F2454" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -61957,7 +61962,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2459" s="3" t="inlineStr">
+      <c r="F2459" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62257,7 +62262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2471" s="3" t="inlineStr">
+      <c r="F2471" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62382,7 +62387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2476" s="3" t="inlineStr">
+      <c r="F2476" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62457,7 +62462,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2479" s="3" t="inlineStr">
+      <c r="F2479" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62482,7 +62487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2480" s="3" t="inlineStr">
+      <c r="F2480" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62507,7 +62512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2481" s="3" t="inlineStr">
+      <c r="F2481" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62532,7 +62537,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2482" s="3" t="inlineStr">
+      <c r="F2482" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62607,7 +62612,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2485" s="3" t="inlineStr">
+      <c r="F2485" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -62982,7 +62987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2500" s="3" t="inlineStr">
+      <c r="F2500" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -63232,7 +63237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2510" s="3" t="inlineStr">
+      <c r="F2510" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -63332,7 +63337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2514" s="3" t="inlineStr">
+      <c r="F2514" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -63407,7 +63412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2517" s="3" t="inlineStr">
+      <c r="F2517" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -63432,7 +63437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2518" s="3" t="inlineStr">
+      <c r="F2518" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -63882,7 +63887,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2536" s="3" t="inlineStr">
+      <c r="F2536" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64007,7 +64012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2541" s="3" t="inlineStr">
+      <c r="F2541" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64032,7 +64037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2542" s="3" t="inlineStr">
+      <c r="F2542" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64082,7 +64087,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2544" s="3" t="inlineStr">
+      <c r="F2544" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64207,7 +64212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2549" s="3" t="inlineStr">
+      <c r="F2549" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64282,7 +64287,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2552" s="3" t="inlineStr">
+      <c r="F2552" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64357,7 +64362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2555" s="3" t="inlineStr">
+      <c r="F2555" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64482,7 +64487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2560" s="3" t="inlineStr">
+      <c r="F2560" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64582,7 +64587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2564" s="3" t="inlineStr">
+      <c r="F2564" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64607,7 +64612,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2565" s="3" t="inlineStr">
+      <c r="F2565" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64707,7 +64712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2569" s="3" t="inlineStr">
+      <c r="F2569" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -64732,7 +64737,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2570" s="3" t="inlineStr">
+      <c r="F2570" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -65357,7 +65362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2595" s="3" t="inlineStr">
+      <c r="F2595" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -65682,7 +65687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2608" s="3" t="inlineStr">
+      <c r="F2608" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -65732,7 +65737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2610" s="3" t="inlineStr">
+      <c r="F2610" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -65932,7 +65937,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2618" s="3" t="inlineStr">
+      <c r="F2618" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -66532,7 +66537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2642" s="3" t="inlineStr">
+      <c r="F2642" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -66607,7 +66612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2645" s="3" t="inlineStr">
+      <c r="F2645" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -66807,7 +66812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2653" s="3" t="inlineStr">
+      <c r="F2653" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -66857,7 +66862,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2655" s="3" t="inlineStr">
+      <c r="F2655" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -66982,7 +66987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2660" s="3" t="inlineStr">
+      <c r="F2660" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67107,7 +67112,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2665" s="3" t="inlineStr">
+      <c r="F2665" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67382,7 +67387,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2676" s="3" t="inlineStr">
+      <c r="F2676" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67432,7 +67437,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2678" s="3" t="inlineStr">
+      <c r="F2678" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67507,7 +67512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2681" s="3" t="inlineStr">
+      <c r="F2681" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67632,7 +67637,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2686" s="3" t="inlineStr">
+      <c r="F2686" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67657,7 +67662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2687" s="3" t="inlineStr">
+      <c r="F2687" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67857,7 +67862,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2695" s="3" t="inlineStr">
+      <c r="F2695" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -67907,7 +67912,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2697" s="3" t="inlineStr">
+      <c r="F2697" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -68332,7 +68337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2714" s="3" t="inlineStr">
+      <c r="F2714" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -68532,7 +68537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2722" s="3" t="inlineStr">
+      <c r="F2722" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -68882,7 +68887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2736" s="3" t="inlineStr">
+      <c r="F2736" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -69057,7 +69062,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2743" s="3" t="inlineStr">
+      <c r="F2743" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -69432,7 +69437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2758" s="3" t="inlineStr">
+      <c r="F2758" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -69607,7 +69612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2765" s="3" t="inlineStr">
+      <c r="F2765" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -69807,7 +69812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2773" s="3" t="inlineStr">
+      <c r="F2773" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -69932,7 +69937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2778" s="3" t="inlineStr">
+      <c r="F2778" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -69982,7 +69987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2780" s="3" t="inlineStr">
+      <c r="F2780" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70057,7 +70062,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2783" s="3" t="inlineStr">
+      <c r="F2783" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70182,7 +70187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2788" s="3" t="inlineStr">
+      <c r="F2788" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70307,7 +70312,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2793" s="3" t="inlineStr">
+      <c r="F2793" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70357,7 +70362,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2795" s="3" t="inlineStr">
+      <c r="F2795" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70582,7 +70587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2804" s="3" t="inlineStr">
+      <c r="F2804" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70682,7 +70687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2808" s="3" t="inlineStr">
+      <c r="F2808" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70832,7 +70837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2814" s="3" t="inlineStr">
+      <c r="F2814" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -70957,7 +70962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2819" s="3" t="inlineStr">
+      <c r="F2819" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -71707,7 +71712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2849" s="3" t="inlineStr">
+      <c r="F2849" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -71832,7 +71837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2854" s="3" t="inlineStr">
+      <c r="F2854" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -72182,7 +72187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2868" s="3" t="inlineStr">
+      <c r="F2868" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -72232,7 +72237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2870" s="3" t="inlineStr">
+      <c r="F2870" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -72582,7 +72587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2884" s="3" t="inlineStr">
+      <c r="F2884" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -72682,7 +72687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2888" s="3" t="inlineStr">
+      <c r="F2888" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -72732,7 +72737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2890" s="3" t="inlineStr">
+      <c r="F2890" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -72782,7 +72787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2892" s="3" t="inlineStr">
+      <c r="F2892" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73032,7 +73037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2902" s="3" t="inlineStr">
+      <c r="F2902" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73082,7 +73087,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2904" s="3" t="inlineStr">
+      <c r="F2904" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73132,7 +73137,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2906" s="3" t="inlineStr">
+      <c r="F2906" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73232,7 +73237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2910" s="3" t="inlineStr">
+      <c r="F2910" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73382,7 +73387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2916" s="3" t="inlineStr">
+      <c r="F2916" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73407,7 +73412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2917" s="3" t="inlineStr">
+      <c r="F2917" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73582,7 +73587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2924" s="3" t="inlineStr">
+      <c r="F2924" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73607,7 +73612,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2925" s="3" t="inlineStr">
+      <c r="F2925" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -73832,7 +73837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2934" s="3" t="inlineStr">
+      <c r="F2934" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -74232,7 +74237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2950" s="3" t="inlineStr">
+      <c r="F2950" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -74307,7 +74312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2953" s="3" t="inlineStr">
+      <c r="F2953" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -74407,7 +74412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2957" s="3" t="inlineStr">
+      <c r="F2957" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -74682,7 +74687,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2968" s="3" t="inlineStr">
+      <c r="F2968" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75107,7 +75112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2985" s="3" t="inlineStr">
+      <c r="F2985" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75182,7 +75187,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2988" s="3" t="inlineStr">
+      <c r="F2988" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75257,7 +75262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2991" s="3" t="inlineStr">
+      <c r="F2991" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75332,7 +75337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2994" s="3" t="inlineStr">
+      <c r="F2994" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75357,7 +75362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2995" s="3" t="inlineStr">
+      <c r="F2995" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75382,7 +75387,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F2996" s="3" t="inlineStr">
+      <c r="F2996" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75432,7 +75437,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F2998" s="3" t="inlineStr">
+      <c r="F2998" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75557,7 +75562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3003" s="3" t="inlineStr">
+      <c r="F3003" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75807,7 +75812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3013" s="3" t="inlineStr">
+      <c r="F3013" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -75982,7 +75987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3020" s="3" t="inlineStr">
+      <c r="F3020" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -76257,7 +76262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3031" s="3" t="inlineStr">
+      <c r="F3031" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -76357,7 +76362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3035" s="3" t="inlineStr">
+      <c r="F3035" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -76557,7 +76562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3043" s="3" t="inlineStr">
+      <c r="F3043" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -76757,7 +76762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3051" s="3" t="inlineStr">
+      <c r="F3051" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -76907,7 +76912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3057" s="3" t="inlineStr">
+      <c r="F3057" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -76932,7 +76937,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3058" s="3" t="inlineStr">
+      <c r="F3058" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -76957,7 +76962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3059" s="3" t="inlineStr">
+      <c r="F3059" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -77332,7 +77337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3074" s="3" t="inlineStr">
+      <c r="F3074" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -77532,7 +77537,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3082" s="3" t="inlineStr">
+      <c r="F3082" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -77982,7 +77987,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3100" s="3" t="inlineStr">
+      <c r="F3100" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -78157,7 +78162,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3107" s="3" t="inlineStr">
+      <c r="F3107" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -78257,7 +78262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3111" s="3" t="inlineStr">
+      <c r="F3111" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -78357,7 +78362,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3115" s="3" t="inlineStr">
+      <c r="F3115" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -78407,7 +78412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3117" s="3" t="inlineStr">
+      <c r="F3117" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -78532,7 +78537,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3122" s="3" t="inlineStr">
+      <c r="F3122" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -78882,7 +78887,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3136" s="3" t="inlineStr">
+      <c r="F3136" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79107,7 +79112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3145" s="3" t="inlineStr">
+      <c r="F3145" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79207,7 +79212,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3149" s="3" t="inlineStr">
+      <c r="F3149" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79332,7 +79337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3154" s="3" t="inlineStr">
+      <c r="F3154" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79382,7 +79387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3156" s="3" t="inlineStr">
+      <c r="F3156" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79482,7 +79487,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3160" s="3" t="inlineStr">
+      <c r="F3160" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79557,7 +79562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3163" s="3" t="inlineStr">
+      <c r="F3163" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79582,7 +79587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3164" s="3" t="inlineStr">
+      <c r="F3164" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79632,7 +79637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3166" s="3" t="inlineStr">
+      <c r="F3166" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79657,7 +79662,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3167" s="3" t="inlineStr">
+      <c r="F3167" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79682,7 +79687,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3168" s="3" t="inlineStr">
+      <c r="F3168" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79882,7 +79887,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3176" s="3" t="inlineStr">
+      <c r="F3176" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79907,7 +79912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3177" s="3" t="inlineStr">
+      <c r="F3177" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -79932,7 +79937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3178" s="3" t="inlineStr">
+      <c r="F3178" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80007,7 +80012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3181" s="3" t="inlineStr">
+      <c r="F3181" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80207,7 +80212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3189" s="3" t="inlineStr">
+      <c r="F3189" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80232,7 +80237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3190" s="3" t="inlineStr">
+      <c r="F3190" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80257,7 +80262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3191" s="3" t="inlineStr">
+      <c r="F3191" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80307,7 +80312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3193" s="3" t="inlineStr">
+      <c r="F3193" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80357,7 +80362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3195" s="3" t="inlineStr">
+      <c r="F3195" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80382,7 +80387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3196" s="3" t="inlineStr">
+      <c r="F3196" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80507,7 +80512,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3201" s="3" t="inlineStr">
+      <c r="F3201" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80582,7 +80587,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3204" s="3" t="inlineStr">
+      <c r="F3204" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80782,7 +80787,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3212" s="3" t="inlineStr">
+      <c r="F3212" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80807,7 +80812,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3213" s="3" t="inlineStr">
+      <c r="F3213" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80907,7 +80912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3217" s="3" t="inlineStr">
+      <c r="F3217" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -80957,7 +80962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3219" s="3" t="inlineStr">
+      <c r="F3219" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81032,7 +81037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3222" s="3" t="inlineStr">
+      <c r="F3222" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81082,7 +81087,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3224" s="3" t="inlineStr">
+      <c r="F3224" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81207,7 +81212,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3229" s="3" t="inlineStr">
+      <c r="F3229" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81232,7 +81237,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3230" s="3" t="inlineStr">
+      <c r="F3230" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81257,7 +81262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3231" s="3" t="inlineStr">
+      <c r="F3231" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81332,7 +81337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3234" s="3" t="inlineStr">
+      <c r="F3234" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81407,7 +81412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3237" s="3" t="inlineStr">
+      <c r="F3237" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81682,7 +81687,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3248" s="3" t="inlineStr">
+      <c r="F3248" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81857,7 +81862,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3255" s="3" t="inlineStr">
+      <c r="F3255" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -81907,7 +81912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3257" s="3" t="inlineStr">
+      <c r="F3257" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -82182,7 +82187,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3268" s="3" t="inlineStr">
+      <c r="F3268" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -82407,7 +82412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3277" s="3" t="inlineStr">
+      <c r="F3277" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -82532,7 +82537,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3282" s="3" t="inlineStr">
+      <c r="F3282" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83007,7 +83012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3301" s="3" t="inlineStr">
+      <c r="F3301" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83132,7 +83137,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3306" s="3" t="inlineStr">
+      <c r="F3306" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83157,7 +83162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3307" s="3" t="inlineStr">
+      <c r="F3307" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83357,7 +83362,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3315" s="3" t="inlineStr">
+      <c r="F3315" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83382,7 +83387,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3316" s="3" t="inlineStr">
+      <c r="F3316" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83407,7 +83412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3317" s="3" t="inlineStr">
+      <c r="F3317" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83482,7 +83487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3320" s="3" t="inlineStr">
+      <c r="F3320" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83657,7 +83662,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3327" s="3" t="inlineStr">
+      <c r="F3327" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83732,7 +83737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3330" s="3" t="inlineStr">
+      <c r="F3330" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83807,7 +83812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3333" s="3" t="inlineStr">
+      <c r="F3333" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83932,7 +83937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3338" s="3" t="inlineStr">
+      <c r="F3338" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -83982,7 +83987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3340" s="3" t="inlineStr">
+      <c r="F3340" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84032,7 +84037,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3342" s="3" t="inlineStr">
+      <c r="F3342" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84332,7 +84337,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3354" s="3" t="inlineStr">
+      <c r="F3354" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84357,7 +84362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3355" s="3" t="inlineStr">
+      <c r="F3355" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84482,7 +84487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3360" s="3" t="inlineStr">
+      <c r="F3360" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84807,7 +84812,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3373" s="3" t="inlineStr">
+      <c r="F3373" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84907,7 +84912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3377" s="3" t="inlineStr">
+      <c r="F3377" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84932,7 +84937,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3378" s="3" t="inlineStr">
+      <c r="F3378" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -84957,7 +84962,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3379" s="3" t="inlineStr">
+      <c r="F3379" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -85257,7 +85262,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3391" s="3" t="inlineStr">
+      <c r="F3391" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -85332,7 +85337,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3394" s="3" t="inlineStr">
+      <c r="F3394" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -85557,7 +85562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3403" s="3" t="inlineStr">
+      <c r="F3403" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -85607,7 +85612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3405" s="3" t="inlineStr">
+      <c r="F3405" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -85732,7 +85737,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3410" s="3" t="inlineStr">
+      <c r="F3410" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86107,7 +86112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3425" s="3" t="inlineStr">
+      <c r="F3425" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86407,7 +86412,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3437" s="3" t="inlineStr">
+      <c r="F3437" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86582,7 +86587,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3444" s="3" t="inlineStr">
+      <c r="F3444" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86732,7 +86737,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3450" s="3" t="inlineStr">
+      <c r="F3450" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86757,7 +86762,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3451" s="3" t="inlineStr">
+      <c r="F3451" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86782,7 +86787,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3452" s="3" t="inlineStr">
+      <c r="F3452" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86832,7 +86837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3454" s="3" t="inlineStr">
+      <c r="F3454" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -86907,7 +86912,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3457" s="3" t="inlineStr">
+      <c r="F3457" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87107,7 +87112,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3465" s="3" t="inlineStr">
+      <c r="F3465" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87157,7 +87162,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3467" s="3" t="inlineStr">
+      <c r="F3467" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87207,7 +87212,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3469" s="3" t="inlineStr">
+      <c r="F3469" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87557,7 +87562,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3483" s="3" t="inlineStr">
+      <c r="F3483" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87632,7 +87637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3486" s="3" t="inlineStr">
+      <c r="F3486" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87707,7 +87712,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3489" s="3" t="inlineStr">
+      <c r="F3489" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87832,7 +87837,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3494" s="3" t="inlineStr">
+      <c r="F3494" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87907,7 +87912,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3497" s="3" t="inlineStr">
+      <c r="F3497" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -87982,7 +87987,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3500" s="3" t="inlineStr">
+      <c r="F3500" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88007,7 +88012,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3501" s="3" t="inlineStr">
+      <c r="F3501" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88307,7 +88312,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3513" s="3" t="inlineStr">
+      <c r="F3513" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88407,7 +88412,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3517" s="3" t="inlineStr">
+      <c r="F3517" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88457,7 +88462,7 @@
           <t>お持ち帰り</t>
         </is>
       </c>
-      <c r="F3519" s="3" t="inlineStr">
+      <c r="F3519" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88482,7 +88487,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3520" s="3" t="inlineStr">
+      <c r="F3520" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88557,7 +88562,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3523" s="3" t="inlineStr">
+      <c r="F3523" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88607,7 +88612,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3525" s="3" t="inlineStr">
+      <c r="F3525" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -88632,7 +88637,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3526" s="3" t="inlineStr">
+      <c r="F3526" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -89182,7 +89187,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3548" s="3" t="inlineStr">
+      <c r="F3548" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>
@@ -89357,7 +89362,7 @@
           <t>デリバリー</t>
         </is>
       </c>
-      <c r="F3555" s="3" t="inlineStr">
+      <c r="F3555" s="5" t="inlineStr">
         <is>
           <t>キャンセル</t>
         </is>

--- a/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
+++ b/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,6 +36,12 @@
     <font>
       <b val="1"/>
       <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="00008080"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,13 +83,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -667,6 +675,11 @@
           <t>お支払済み</t>
         </is>
       </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>集計</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="inlineStr">
@@ -692,6 +705,15 @@
           <t>お支払済み</t>
         </is>
       </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>データ総額</t>
+        </is>
+      </c>
+      <c r="J8">
+        <f>SUM(D4:D3556)</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
@@ -717,6 +739,15 @@
           <t>お支払済み</t>
         </is>
       </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 内 決済完了額</t>
+        </is>
+      </c>
+      <c r="J9">
+        <f>SUMIF(F4:F3556,"&lt;&gt;キャンセル",D4:D3556)</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="3" t="inlineStr">
@@ -741,6 +772,15 @@
         <is>
           <t>お渡し済み</t>
         </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 内 キャンセル額</t>
+        </is>
+      </c>
+      <c r="J10">
+        <f>SUMIF(F4:F3556,"=キャンセル",D4:D3556)</f>
+        <v/>
       </c>
     </row>
     <row r="11">

--- a/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
+++ b/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,9 +36,6 @@
     <font>
       <b val="1"/>
       <color rgb="00FF0000"/>
-    </font>
-    <font>
-      <color rgb="00008080"/>
     </font>
     <font>
       <b val="1"/>
@@ -83,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -91,7 +88,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -166,6 +162,144 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>折れ線グラフ</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>売上額</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'1_昭島店'!$D$4:$D$23</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>件数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>売上額</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7200000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +811,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>集計</t>
+          <t>売上グラフ</t>
         </is>
       </c>
     </row>
@@ -739,7 +873,7 @@
           <t>お支払済み</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 内 決済完了額</t>
         </is>
@@ -773,7 +907,7 @@
           <t>お渡し済み</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 内 キャンセル額</t>
         </is>
@@ -89435,5 +89569,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
+++ b/src/Machine_learning_system/4_output_in_excel/output/1_昭島店.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="サマリーレポート" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data_CancelRank" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data_AreaRank" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data_DeliveryRank" sheetId="4" state="hidden" r:id="rId4"/>
@@ -23,13 +23,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00008080"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00008080"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="000080FF"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,9 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -129,6 +150,144 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>期間売上額（日毎）</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>売上額</v>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Data_Target_Daily'!$B$2:$B$92</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>件数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>売上額</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,15 +579,138 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>昭島店 サマリーレポート（4月〜6月）</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>店舗売上額</t>
+        </is>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM(Data_Target_Daily!B2:B92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>店舗売上ランク</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>197店舗中 32 位</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>地域店舗売上情報</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>最高額</t>
+        </is>
+      </c>
+      <c r="L5" s="6">
+        <f>MAX(Data_AreaRank!B2:B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>最低額</t>
+        </is>
+      </c>
+      <c r="L6" s="6">
+        <f>MIN(Data_AreaRank!B2:B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>地域平均</t>
+        </is>
+      </c>
+      <c r="L7" s="6">
+        <f>AVERAGE(Data_AreaRank!B2:B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>キャンセルランク</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>197店舗中 164 位</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>地域平均</t>
+        </is>
+      </c>
+      <c r="L13" s="7">
+        <f>AVERAGE(Data_CancelRank!C2:C197)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>配達時間ランク</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>197店舗中 24 位</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>地域平均</t>
+        </is>
+      </c>
+      <c r="L17" s="7">
+        <f>AVERAGE(Data_DeliveryRank!B2:B87)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6221,14 +6503,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>25569</v>
+        <v>34</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20.17444326617179</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>王子店</t>
+          <t>恵比寿店</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6241,8 +6523,8 @@
       <c r="A3" t="n">
         <v>69</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>25569</v>
+      <c r="B3" t="n">
+        <v>20.17616785431512</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -6257,14 +6539,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>25569</v>
+        <v>41</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20.27454464682364</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恵比寿店</t>
+          <t>荻窪店</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6275,14 +6557,14 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>25569</v>
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20.41670644391408</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>荻窪店</t>
+          <t>王子店</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6293,14 +6575,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>25569</v>
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33.69383596535914</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>自由が丘店</t>
+          <t>小金井店</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6311,14 +6593,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>25569</v>
+        <v>86</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33.9816474605207</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>小金井店</t>
+          <t>自由が丘店</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6329,14 +6611,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>25569</v>
+        <v>83</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34.01868686868687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>駒込店</t>
+          <t>武蔵野店</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6347,14 +6629,14 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>25569</v>
+        <v>71</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34.04992199687987</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>巣鴨店</t>
+          <t>東村山店</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6365,14 +6647,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>25569</v>
+        <v>50</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34.07673179396092</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>池袋店</t>
+          <t>谷中店</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6383,14 +6665,14 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>25569</v>
+        <v>46</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34.08751334044824</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>九段店</t>
+          <t>駒沢店</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6401,14 +6683,14 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>25569</v>
+        <v>62</v>
+      </c>
+      <c r="B12" t="n">
+        <v>34.13655872024971</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>調布店</t>
+          <t>東中野店</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6419,14 +6701,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>25569</v>
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34.15205959684487</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>銀座店</t>
+          <t>綾瀬店</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6437,14 +6719,14 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>25569</v>
+        <v>39</v>
+      </c>
+      <c r="B14" t="n">
+        <v>34.18376449598573</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>多摩店</t>
+          <t>杉並店</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6455,14 +6737,14 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>25569</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34.20649651972158</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>立川店</t>
+          <t>大田店</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6473,14 +6755,14 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>25569</v>
+        <v>65</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34.25202937765752</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>谷中店</t>
+          <t>練馬店</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6491,14 +6773,14 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>25569</v>
+        <v>68</v>
+      </c>
+      <c r="B17" t="n">
+        <v>34.27988546886185</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浅草店</t>
+          <t>八王子店</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -6509,14 +6791,14 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>25569</v>
+        <v>58</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34.30190143577803</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上野店</t>
+          <t>池袋店</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -6529,8 +6811,8 @@
       <c r="A19" t="n">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>25569</v>
+      <c r="B19" t="n">
+        <v>34.31596091205212</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -6545,14 +6827,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>25569</v>
+        <v>60</v>
+      </c>
+      <c r="B20" t="n">
+        <v>34.32123552123552</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>駒沢店</t>
+          <t>駒込店</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -6563,14 +6845,14 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>25569</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34.32707667731629</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>池尻店</t>
+          <t>国立店</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6581,14 +6863,14 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>25569</v>
+        <v>28</v>
+      </c>
+      <c r="B22" t="n">
+        <v>34.34484649122807</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>日本橋店</t>
+          <t>小平店</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6599,14 +6881,14 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>62</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>25569</v>
+        <v>55</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34.3703557312253</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>東中野店</t>
+          <t>調布店</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6617,14 +6899,14 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>64</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>25569</v>
+        <v>77</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34.38511488511489</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西東京店</t>
+          <t>大塚店</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6635,14 +6917,14 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>25569</v>
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34.3961824953445</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>練馬店</t>
+          <t>昭島店</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6653,14 +6935,14 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>84</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>25569</v>
+        <v>23</v>
+      </c>
+      <c r="B26" t="n">
+        <v>34.40433053468847</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>武蔵村山店</t>
+          <t>江東店</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6671,14 +6953,14 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>83</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>25569</v>
+        <v>78</v>
+      </c>
+      <c r="B27" t="n">
+        <v>34.40462662337662</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>武蔵野店</t>
+          <t>町田店</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6689,14 +6971,14 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>25569</v>
+        <v>49</v>
+      </c>
+      <c r="B28" t="n">
+        <v>34.43812575090108</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>六本木店</t>
+          <t>浅草店</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6707,14 +6989,14 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>25569</v>
+        <v>73</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34.44593945218645</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>青山店</t>
+          <t>日野店</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6725,14 +7007,14 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>80</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>25569</v>
+        <v>74</v>
+      </c>
+      <c r="B30" t="n">
+        <v>34.45596781403665</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>赤坂店</t>
+          <t>府中店</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -6743,14 +7025,14 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>79</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>25569</v>
+        <v>24</v>
+      </c>
+      <c r="B31" t="n">
+        <v>34.45617631983598</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>三鷹店</t>
+          <t>富岡店</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6761,14 +7043,14 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>78</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>25569</v>
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>34.4619388418998</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>町田店</t>
+          <t>足立店</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6779,14 +7061,14 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>63</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>25569</v>
+        <v>17</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34.46366279069768</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>西多摩店</t>
+          <t>葛飾店</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6797,14 +7079,14 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>25569</v>
+        <v>36</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34.474</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大塚店</t>
+          <t>新宿店</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6815,14 +7097,14 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>74</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>25569</v>
+        <v>15</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34.47829518547751</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>府中店</t>
+          <t>大森店</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6833,14 +7115,14 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>73</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>25569</v>
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34.49159891598916</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>日野店</t>
+          <t>北千住店</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6851,14 +7133,14 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>25569</v>
+        <v>52</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34.51578411405296</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>東大和店</t>
+          <t>多摩店</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6869,14 +7151,14 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>71</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>25569</v>
+        <v>84</v>
+      </c>
+      <c r="B38" t="n">
+        <v>34.51784946236559</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>東村山店</t>
+          <t>武蔵村山店</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6887,14 +7169,14 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>70</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>25569</v>
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>34.53501945525292</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>東久留米店</t>
+          <t>高円寺店</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6905,14 +7187,14 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>68</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>25569</v>
+        <v>32</v>
+      </c>
+      <c r="B40" t="n">
+        <v>34.53663089127392</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>八王子店</t>
+          <t>大井店</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6923,14 +7205,14 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>25569</v>
+        <v>11</v>
+      </c>
+      <c r="B41" t="n">
+        <v>34.56428571428572</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>大泉店</t>
+          <t>江戸川店</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6941,14 +7223,14 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>75</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>25569</v>
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>34.56576862123613</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>福生店</t>
+          <t>向島店</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6959,14 +7241,14 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>44</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>25569</v>
+        <v>80</v>
+      </c>
+      <c r="B43" t="n">
+        <v>34.58689910195457</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>世田谷店</t>
+          <t>赤坂店</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6977,14 +7259,14 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>25569</v>
+        <v>53</v>
+      </c>
+      <c r="B44" t="n">
+        <v>34.61108063631377</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>昭島店</t>
+          <t>銀座店</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6995,14 +7277,14 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>25569</v>
+        <v>57</v>
+      </c>
+      <c r="B45" t="n">
+        <v>34.62028397565923</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>墨田店</t>
+          <t>九段店</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7013,14 +7295,14 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>85</v>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>25569</v>
+        <v>31</v>
+      </c>
+      <c r="B46" t="n">
+        <v>34.6235182550972</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>目黒店</t>
+          <t>五反田店</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7031,14 +7313,14 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>25569</v>
+        <v>75</v>
+      </c>
+      <c r="B47" t="n">
+        <v>34.63085063085063</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>亀有店</t>
+          <t>福生店</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -7049,14 +7331,14 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>25569</v>
+        <v>30</v>
+      </c>
+      <c r="B48" t="n">
+        <v>34.65888208269525</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>葛飾店</t>
+          <t>品川店</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7067,14 +7349,14 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>25569</v>
+        <v>37</v>
+      </c>
+      <c r="B49" t="n">
+        <v>34.67085295656724</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蒲田店</t>
+          <t>大久保店</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7085,14 +7367,14 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>25569</v>
+        <v>13</v>
+      </c>
+      <c r="B50" t="n">
+        <v>34.67304347826087</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大森店</t>
+          <t>青梅店</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7103,14 +7385,14 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14</v>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>25569</v>
+        <v>54</v>
+      </c>
+      <c r="B51" t="n">
+        <v>34.67518109035456</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大田店</t>
+          <t>日本橋店</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7121,14 +7403,14 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>25569</v>
+        <v>9</v>
+      </c>
+      <c r="B52" t="n">
+        <v>34.68103448275862</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>青梅店</t>
+          <t>高島平店</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7139,14 +7421,14 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21</v>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>25569</v>
+        <v>7</v>
+      </c>
+      <c r="B53" t="n">
+        <v>34.68272727272727</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>清瀬店</t>
+          <t>東尾久店</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7157,14 +7439,14 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>25569</v>
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>34.68550458715596</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>西葛西店</t>
+          <t>巣鴨店</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -7175,14 +7457,14 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>25569</v>
+        <v>45</v>
+      </c>
+      <c r="B55" t="n">
+        <v>34.68590909090909</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>高島平店</t>
+          <t>池尻店</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7193,14 +7475,14 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>25569</v>
+        <v>70</v>
+      </c>
+      <c r="B56" t="n">
+        <v>34.69122357463165</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>東尾久店</t>
+          <t>東久留米店</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7211,14 +7493,14 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>25569</v>
+        <v>67</v>
+      </c>
+      <c r="B57" t="n">
+        <v>34.69823584029712</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>荒川店</t>
+          <t>大泉店</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7229,14 +7511,14 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>25569</v>
+        <v>6</v>
+      </c>
+      <c r="B58" t="n">
+        <v>34.69878787878788</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>綾瀬店</t>
+          <t>荒川店</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7247,14 +7529,14 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>25569</v>
+        <v>16</v>
+      </c>
+      <c r="B59" t="n">
+        <v>34.7120972002113</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>北千住店</t>
+          <t>蒲田店</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -7265,14 +7547,14 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>25569</v>
+        <v>25</v>
+      </c>
+      <c r="B60" t="n">
+        <v>34.75561202880136</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>足立店</t>
+          <t>南砂店</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7283,14 +7565,14 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>25569</v>
+        <v>27</v>
+      </c>
+      <c r="B61" t="n">
+        <v>34.75569128262077</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>あきる野店</t>
+          <t>国分寺店</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7301,14 +7583,14 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>25569</v>
+        <v>79</v>
+      </c>
+      <c r="B62" t="n">
+        <v>34.75823782234957</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>江戸川店</t>
+          <t>三鷹店</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7319,14 +7601,14 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22</v>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>25569</v>
+        <v>12</v>
+      </c>
+      <c r="B63" t="n">
+        <v>34.76712328767123</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国立店</t>
+          <t>西葛西店</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7337,14 +7619,14 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>43</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>25569</v>
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>34.77329082536309</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>向島店</t>
+          <t>西多摩店</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7355,14 +7637,14 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>30</v>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>25569</v>
+        <v>33</v>
+      </c>
+      <c r="B65" t="n">
+        <v>34.77671298514614</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>品川店</t>
+          <t>渋谷店</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -7373,14 +7655,14 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>35</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>25569</v>
+        <v>44</v>
+      </c>
+      <c r="B66" t="n">
+        <v>34.777110561639</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>代々木店</t>
+          <t>世田谷店</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7391,14 +7673,14 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>33</v>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>25569</v>
+        <v>82</v>
+      </c>
+      <c r="B67" t="n">
+        <v>34.78729281767956</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>渋谷店</t>
+          <t>六本木店</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7409,14 +7691,14 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>39</v>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>25569</v>
+        <v>29</v>
+      </c>
+      <c r="B68" t="n">
+        <v>34.7882721575649</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>杉並店</t>
+          <t>狛江店</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7427,14 +7709,14 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>23</v>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>25569</v>
+        <v>35</v>
+      </c>
+      <c r="B69" t="n">
+        <v>34.80072463768116</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>江東店</t>
+          <t>代々木店</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7445,14 +7727,14 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>32</v>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>25569</v>
+        <v>18</v>
+      </c>
+      <c r="B70" t="n">
+        <v>34.80189174986863</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大井店</t>
+          <t>亀有店</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7463,14 +7745,14 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>31</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>25569</v>
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>34.83594120436226</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>五反田店</t>
+          <t>あきる野店</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7481,14 +7763,14 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36</v>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>25569</v>
+        <v>64</v>
+      </c>
+      <c r="B72" t="n">
+        <v>34.86696478479598</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>新宿店</t>
+          <t>西東京店</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7499,14 +7781,14 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37</v>
-      </c>
-      <c r="B73" s="1" t="n">
-        <v>25569</v>
+        <v>21</v>
+      </c>
+      <c r="B73" t="n">
+        <v>34.87454450806872</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大久保店</t>
+          <t>清瀬店</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -7517,14 +7799,14 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>28</v>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>25569</v>
+        <v>85</v>
+      </c>
+      <c r="B74" t="n">
+        <v>34.91470723835869</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>小平店</t>
+          <t>目黒店</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7535,14 +7817,14 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>27</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>25569</v>
+        <v>72</v>
+      </c>
+      <c r="B75" t="n">
+        <v>34.93574297188755</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>国分寺店</t>
+          <t>東大和店</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -7553,14 +7835,14 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>25</v>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>25569</v>
+        <v>42</v>
+      </c>
+      <c r="B76" t="n">
+        <v>34.94813979706877</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>南砂店</t>
+          <t>墨田店</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7571,14 +7853,14 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>40</v>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>25569</v>
+        <v>48</v>
+      </c>
+      <c r="B77" t="n">
+        <v>34.95317170375291</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>高円寺店</t>
+          <t>上野店</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7589,14 +7871,14 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>24</v>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>25569</v>
+        <v>81</v>
+      </c>
+      <c r="B78" t="n">
+        <v>34.96199427870862</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>富岡店</t>
+          <t>青山店</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7607,14 +7889,14 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>29</v>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>25569</v>
+        <v>51</v>
+      </c>
+      <c r="B79" t="n">
+        <v>34.98744045041143</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>狛江店</t>
+          <t>立川店</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -7627,8 +7909,8 @@
       <c r="A80" t="n">
         <v>56</v>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>25569</v>
+      <c r="B80" t="n">
+        <v>35.03543453935099</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -7645,8 +7927,8 @@
       <c r="A81" t="n">
         <v>38</v>
       </c>
-      <c r="B81" s="1" t="n">
-        <v>25569</v>
+      <c r="B81" t="n">
+        <v>35.04054054054054</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -7663,8 +7945,8 @@
       <c r="A82" t="n">
         <v>61</v>
       </c>
-      <c r="B82" s="1" t="n">
-        <v>25569</v>
+      <c r="B82" t="n">
+        <v>35.3035204567079</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -7681,8 +7963,8 @@
       <c r="A83" t="n">
         <v>19</v>
       </c>
-      <c r="B83" s="1" t="n">
-        <v>25569</v>
+      <c r="B83" t="n">
+        <v>46.63355834136934</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -7697,14 +7979,14 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>76</v>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>25569</v>
+        <v>10</v>
+      </c>
+      <c r="B84" t="n">
+        <v>47.34395280235988</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>本郷店</t>
+          <t>稲城店</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -7715,14 +7997,14 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8</v>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>25569</v>
+        <v>76</v>
+      </c>
+      <c r="B85" t="n">
+        <v>47.66994700984103</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>板橋店</t>
+          <t>本郷店</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -7733,14 +8015,14 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10</v>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>25569</v>
+        <v>8</v>
+      </c>
+      <c r="B86" t="n">
+        <v>47.67563291139241</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>稲城店</t>
+          <t>板橋店</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7753,8 +8035,8 @@
       <c r="A87" t="n">
         <v>66</v>
       </c>
-      <c r="B87" s="1" t="n">
-        <v>25569</v>
+      <c r="B87" t="n">
+        <v>48.01098901098901</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
